--- a/tests/drawings/data/t_boreholes_coords_outputs.xlsx
+++ b/tests/drawings/data/t_boreholes_coords_outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\papau\Desktop\Projetospessoais\geotechnics\tests\drawings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C81342E-9811-40A0-A743-7F01E12CD796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496B013B-0C83-4031-8007-67EB3020FDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="945" windowWidth="29040" windowHeight="15720" xr2:uid="{9AA19384-C6D1-46CD-B2F6-04A96740206E}"/>
   </bookViews>
@@ -160,8 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15636BBE-019C-468F-B0F9-09074C0B002C}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L2:L15"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,15 +490,15 @@
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,16 +523,16 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
       <c r="M1" t="s">
@@ -543,7 +542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -553,7 +552,7 @@
       <c r="C2">
         <v>811</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
@@ -563,23 +562,23 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f>B2</f>
+        <f t="shared" ref="G2:G15" si="0">B2</f>
         <v>813.5</v>
       </c>
-      <c r="H2" s="1">
-        <f>C2</f>
+      <c r="H2">
+        <f t="shared" ref="H2:H15" si="1">C2</f>
         <v>811</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2">
@@ -588,9 +587,8 @@
       <c r="N2">
         <v>2</v>
       </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -600,45 +598,43 @@
       <c r="C3">
         <v>808</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <f>B3</f>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
         <v>811</v>
       </c>
-      <c r="H3" s="1">
-        <f>C3</f>
+      <c r="H3">
+        <f t="shared" si="1"/>
         <v>808</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -648,45 +644,43 @@
       <c r="C4">
         <v>805.5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <f>B4</f>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
         <v>808</v>
       </c>
-      <c r="H4" s="1">
-        <f>C4</f>
+      <c r="H4">
+        <f t="shared" si="1"/>
         <v>805.5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -696,45 +690,43 @@
       <c r="C5">
         <v>801</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <f>B5</f>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>805.5</v>
       </c>
-      <c r="H5" s="1">
-        <f>C5</f>
+      <c r="H5">
+        <f t="shared" si="1"/>
         <v>801</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -744,45 +736,43 @@
       <c r="C6">
         <v>800</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <f>B6</f>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
         <v>801</v>
       </c>
-      <c r="H6" s="1">
-        <f>C6</f>
+      <c r="H6">
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -792,7 +782,7 @@
       <c r="C7">
         <v>826.5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
@@ -801,35 +791,34 @@
       <c r="F7">
         <v>14</v>
       </c>
-      <c r="G7" s="1">
-        <f>B7</f>
+      <c r="G7">
+        <f t="shared" si="0"/>
         <v>831</v>
       </c>
-      <c r="H7" s="1">
-        <f>C7</f>
+      <c r="H7">
+        <f t="shared" si="1"/>
         <v>826.5</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -839,44 +828,43 @@
       <c r="C8">
         <v>812</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>14</v>
       </c>
-      <c r="G8" s="1">
-        <f>B8</f>
+      <c r="G8">
+        <f t="shared" si="0"/>
         <v>826.5</v>
       </c>
-      <c r="H8" s="1">
-        <f>C8</f>
+      <c r="H8">
+        <f t="shared" si="1"/>
         <v>812</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>20</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -886,44 +874,43 @@
       <c r="C9">
         <v>806.3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>12</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="G9" s="1">
-        <f>B9</f>
+      <c r="G9">
+        <f t="shared" si="0"/>
         <v>812</v>
       </c>
-      <c r="H9" s="1">
-        <f>C9</f>
+      <c r="H9">
+        <f t="shared" si="1"/>
         <v>806.3</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10</v>
-      </c>
-      <c r="N9" s="1">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -933,44 +920,43 @@
       <c r="C10">
         <v>802</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>12</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="G10" s="1">
-        <f>B10</f>
+      <c r="G10">
+        <f t="shared" si="0"/>
         <v>806.3</v>
       </c>
-      <c r="H10" s="1">
-        <f>C10</f>
+      <c r="H10">
+        <f t="shared" si="1"/>
         <v>802</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>20</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2</v>
-      </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -980,44 +966,43 @@
       <c r="C11">
         <v>800</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>12</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>14</v>
       </c>
-      <c r="G11" s="1">
-        <f>B11</f>
+      <c r="G11">
+        <f t="shared" si="0"/>
         <v>802</v>
       </c>
       <c r="H11">
-        <f>C11</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1012,7 @@
       <c r="C12">
         <v>807</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
@@ -1036,35 +1021,34 @@
       <c r="F12">
         <v>26</v>
       </c>
-      <c r="G12" s="1">
-        <f>B12</f>
+      <c r="G12">
+        <f t="shared" si="0"/>
         <v>817</v>
       </c>
-      <c r="H12" s="1">
-        <f>C12</f>
+      <c r="H12">
+        <f t="shared" si="1"/>
         <v>807</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>20</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2</v>
-      </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1074,44 +1058,43 @@
       <c r="C13">
         <v>805</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>24</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>26</v>
       </c>
-      <c r="G13" s="1">
-        <f>B13</f>
+      <c r="G13">
+        <f t="shared" si="0"/>
         <v>807</v>
       </c>
-      <c r="H13" s="1">
-        <f>C13</f>
+      <c r="H13">
+        <f t="shared" si="1"/>
         <v>805</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2</v>
-      </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1121,44 +1104,43 @@
       <c r="C14">
         <v>804</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>24</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>26</v>
       </c>
-      <c r="G14" s="1">
-        <f>B14</f>
+      <c r="G14">
+        <f t="shared" si="0"/>
         <v>805</v>
       </c>
-      <c r="H14" s="1">
-        <f>C14</f>
+      <c r="H14">
+        <f t="shared" si="1"/>
         <v>804</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>20</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="1">
-        <v>10</v>
-      </c>
-      <c r="N14" s="1">
-        <v>2</v>
-      </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1168,44 +1150,43 @@
       <c r="C15">
         <v>800</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>24</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>26</v>
       </c>
-      <c r="G15" s="1">
-        <f>B15</f>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>804</v>
       </c>
-      <c r="H15" s="1">
-        <f>C15</f>
+      <c r="H15">
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>20</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="1">
-        <v>10</v>
-      </c>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1215,44 +1196,43 @@
       <c r="C16">
         <v>811</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
         <f>B16-$B$16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" ref="H16:H20" si="0">C16-$B$16</f>
+      <c r="H16">
+        <f t="shared" ref="H16:H20" si="2">C16-$B$16</f>
         <v>-2.5</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>20</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="1">
-        <v>10</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1262,44 +1242,43 @@
       <c r="C17">
         <v>808</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" ref="G17:G20" si="1">B17-$B$16</f>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G20" si="3">B17-$B$16</f>
         <v>-2.5</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="0"/>
+      <c r="H17">
+        <f t="shared" si="2"/>
         <v>-5.5</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>20</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="1">
-        <v>10</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1309,44 +1288,43 @@
       <c r="C18">
         <v>805.5</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
         <v>-5.5</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="0"/>
+      <c r="H18">
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>20</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="1">
-        <v>10</v>
-      </c>
-      <c r="N18" s="1">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1356,44 +1334,43 @@
       <c r="C19">
         <v>801</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
         <v>-8</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" si="0"/>
+      <c r="H19">
+        <f t="shared" si="2"/>
         <v>-12.5</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>20</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="1">
-        <v>10</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1403,44 +1380,43 @@
       <c r="C20">
         <v>800</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
         <v>-12.5</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
+      <c r="H20">
+        <f t="shared" si="2"/>
         <v>-13.5</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>20</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="1">
-        <v>10</v>
-      </c>
-      <c r="N20" s="1">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1450,44 +1426,43 @@
       <c r="C21">
         <v>826.5</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>12</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>14</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" ref="G21:G25" si="2">B21-$B$21</f>
+      <c r="G21">
+        <f t="shared" ref="G21:G25" si="4">B21-$B$21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <f>C21-$B$21</f>
         <v>-4.5</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>20</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="1">
-        <v>10</v>
-      </c>
-      <c r="N21" s="1">
-        <v>2</v>
-      </c>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1497,44 +1472,43 @@
       <c r="C22">
         <v>812</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>12</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>14</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="2"/>
+      <c r="G22">
+        <f t="shared" si="4"/>
         <v>-4.5</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" ref="H22:H25" si="3">C22-$B$21</f>
+      <c r="H22">
+        <f t="shared" ref="H22:H25" si="5">C22-$B$21</f>
         <v>-19</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>20</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="1">
-        <v>10</v>
-      </c>
-      <c r="N22" s="1">
-        <v>2</v>
-      </c>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1544,44 +1518,43 @@
       <c r="C23">
         <v>806.3</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>12</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>14</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="2"/>
+      <c r="G23">
+        <f t="shared" si="4"/>
         <v>-19</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="3"/>
+      <c r="H23">
+        <f t="shared" si="5"/>
         <v>-24.700000000000045</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>20</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="1">
-        <v>10</v>
-      </c>
-      <c r="N23" s="1">
-        <v>2</v>
-      </c>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1591,44 +1564,43 @@
       <c r="C24">
         <v>802</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>12</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>14</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="2"/>
+      <c r="G24">
+        <f t="shared" si="4"/>
         <v>-24.700000000000045</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="3"/>
+      <c r="H24">
+        <f t="shared" si="5"/>
         <v>-29</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>20</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="1">
-        <v>10</v>
-      </c>
-      <c r="N24" s="1">
-        <v>2</v>
-      </c>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1638,44 +1610,43 @@
       <c r="C25">
         <v>800</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>12</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>14</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="2"/>
+      <c r="G25">
+        <f t="shared" si="4"/>
         <v>-29</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="3"/>
+      <c r="H25">
+        <f t="shared" si="5"/>
         <v>-31</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>20</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="1">
-        <v>10</v>
-      </c>
-      <c r="N25" s="1">
-        <v>2</v>
-      </c>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1685,44 +1656,43 @@
       <c r="C26">
         <v>807</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>24</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>26</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" ref="G26:G29" si="4">B26-$B$26</f>
+      <c r="G26">
+        <f t="shared" ref="G26:G29" si="6">B26-$B$26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <f>C26-$B$26</f>
         <v>-10</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>20</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="1">
-        <v>10</v>
-      </c>
-      <c r="N26" s="1">
-        <v>2</v>
-      </c>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1732,44 +1702,43 @@
       <c r="C27">
         <v>805</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>24</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>26</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="4"/>
+      <c r="G27">
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" ref="H27:H29" si="5">C27-$B$26</f>
+      <c r="H27">
+        <f t="shared" ref="H27:H29" si="7">C27-$B$26</f>
         <v>-12</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>20</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="1">
-        <v>10</v>
-      </c>
-      <c r="N27" s="1">
-        <v>2</v>
-      </c>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1779,44 +1748,43 @@
       <c r="C28">
         <v>804</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>24</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>26</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="4"/>
+      <c r="G28">
+        <f t="shared" si="6"/>
         <v>-12</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="5"/>
+      <c r="H28">
+        <f t="shared" si="7"/>
         <v>-13</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>20</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="1">
-        <v>10</v>
-      </c>
-      <c r="N28" s="1">
-        <v>2</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1826,289 +1794,283 @@
       <c r="C29">
         <v>800</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>24</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>26</v>
       </c>
-      <c r="G29" s="1">
-        <f t="shared" si="4"/>
+      <c r="G29">
+        <f t="shared" si="6"/>
         <v>-13</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" si="5"/>
+      <c r="H29">
+        <f t="shared" si="7"/>
         <v>-17</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>20</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="1">
-        <v>10</v>
-      </c>
-      <c r="N29" s="1">
-        <v>2</v>
-      </c>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
         <f>-B30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <f>-C30</f>
         <v>-1</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>20</v>
       </c>
       <c r="J30" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="1">
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30">
         <v>5</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>5.5</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="1">
-        <f t="shared" ref="G31:H43" si="6">-B31</f>
+      <c r="G31">
+        <f t="shared" ref="G31:H43" si="8">-B31</f>
         <v>-1</v>
       </c>
-      <c r="H31" s="1">
-        <f t="shared" si="6"/>
+      <c r="H31">
+        <f t="shared" si="8"/>
         <v>-5.5</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>20</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="1">
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31">
         <v>5</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31">
         <v>1</v>
       </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
         <v>5.5</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>8</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" si="6"/>
+      <c r="G32">
+        <f t="shared" si="8"/>
         <v>-5.5</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" si="6"/>
+      <c r="H32">
+        <f t="shared" si="8"/>
         <v>-8</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>20</v>
       </c>
       <c r="J32" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="1">
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32">
         <v>5</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32">
         <v>1</v>
       </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>11</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="6"/>
+      <c r="G33">
+        <f t="shared" si="8"/>
         <v>-8</v>
       </c>
-      <c r="H33" s="1">
-        <f t="shared" si="6"/>
+      <c r="H33">
+        <f t="shared" si="8"/>
         <v>-11</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>20</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="1">
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33">
         <v>1</v>
       </c>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
         <v>11</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>13.5</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="6"/>
+      <c r="G34">
+        <f t="shared" si="8"/>
         <v>-11</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" si="6"/>
+      <c r="H34">
+        <f t="shared" si="8"/>
         <v>-13.5</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>20</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="1">
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34">
         <v>5</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34">
         <v>1</v>
       </c>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35">
@@ -2117,233 +2079,228 @@
       <c r="F35">
         <v>7</v>
       </c>
-      <c r="G35" s="1">
-        <f t="shared" si="6"/>
+      <c r="G35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H35" s="1">
-        <f t="shared" si="6"/>
+      <c r="H35">
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>20</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="1">
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
         <v>5</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35">
         <v>1</v>
       </c>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
         <v>6.3</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>7</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="6"/>
+      <c r="G36">
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="6"/>
+      <c r="H36">
+        <f t="shared" si="8"/>
         <v>-6.3</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>20</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="1">
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36">
         <v>5</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36">
         <v>1</v>
       </c>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>6.3</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>12</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>6</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>7</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" si="6"/>
+      <c r="G37">
+        <f t="shared" si="8"/>
         <v>-6.3</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="6"/>
+      <c r="H37">
+        <f t="shared" si="8"/>
         <v>-12</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>20</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="1">
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37">
         <v>5</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37">
         <v>1</v>
       </c>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>12</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>26.5</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>6</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>7</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="6"/>
+      <c r="G38">
+        <f t="shared" si="8"/>
         <v>-12</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="6"/>
+      <c r="H38">
+        <f t="shared" si="8"/>
         <v>-26.5</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>20</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="K38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38">
         <v>5</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38">
         <v>1</v>
       </c>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>26.5</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>31</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>6</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>7</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="6"/>
+      <c r="G39">
+        <f t="shared" si="8"/>
         <v>-26.5</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="6"/>
+      <c r="H39">
+        <f t="shared" si="8"/>
         <v>-31</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>20</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="1">
+      <c r="K39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39">
         <v>5</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39">
         <v>1</v>
       </c>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40">
@@ -2352,328 +2309,170 @@
       <c r="F40">
         <v>13</v>
       </c>
-      <c r="G40" s="1">
-        <f t="shared" si="6"/>
+      <c r="G40">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H40" s="1">
-        <f t="shared" si="6"/>
+      <c r="H40">
+        <f t="shared" si="8"/>
         <v>-4</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>20</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="1">
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40">
         <v>5</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40">
         <v>1</v>
       </c>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>5</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>12</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>13</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" si="6"/>
+      <c r="G41">
+        <f t="shared" si="8"/>
         <v>-4</v>
       </c>
-      <c r="H41" s="1">
-        <f t="shared" si="6"/>
+      <c r="H41">
+        <f t="shared" si="8"/>
         <v>-5</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>20</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="1">
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41">
         <v>5</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41">
         <v>1</v>
       </c>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>7</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>12</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>13</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="6"/>
+      <c r="G42">
+        <f t="shared" si="8"/>
         <v>-5</v>
       </c>
-      <c r="H42" s="1">
-        <f t="shared" si="6"/>
+      <c r="H42">
+        <f t="shared" si="8"/>
         <v>-7</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>20</v>
       </c>
       <c r="J42" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="1">
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42">
         <v>5</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42">
         <v>1</v>
       </c>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>17</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>12</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>13</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="6"/>
+      <c r="G43">
+        <f t="shared" si="8"/>
         <v>-7</v>
       </c>
-      <c r="H43" s="1">
-        <f t="shared" si="6"/>
+      <c r="H43">
+        <f t="shared" si="8"/>
         <v>-17</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>20</v>
       </c>
       <c r="J43" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="1">
+      <c r="K43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43">
         <v>5</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43">
         <v>1</v>
       </c>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="J57" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N29">
